--- a/bmp_prjcts.xlsx
+++ b/bmp_prjcts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Molly/Desktop/UCB/Cost Benefit Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D337E5-1FFF-3149-AFDC-943D29C3A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D21EC1-4A8B-0E44-9DBF-A15DCFB021B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E92ABD9C-8141-A84E-9759-701E2E46C938}"/>
   </bookViews>
   <sheets>
-    <sheet name="2014 (inflation-adjusted)" sheetId="4" r:id="rId1"/>
-    <sheet name="2014 (inflation-adjusted) (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="2014 (revised)" sheetId="3" r:id="rId3"/>
-    <sheet name="2014" sheetId="1" r:id="rId4"/>
+    <sheet name="2014" sheetId="1" r:id="rId1"/>
+    <sheet name="2014 (inflation-adjusted)" sheetId="4" r:id="rId2"/>
+    <sheet name="2014 (inflation-adjusted) (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="2014 (revised)" sheetId="3" r:id="rId4"/>
     <sheet name="2022" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>Project</t>
   </si>
@@ -134,16 +134,26 @@
   </si>
   <si>
     <t>San Benito County Groundwater Demineralization at Watsonville WWTP</t>
+  </si>
+  <si>
+    <t>2014 Planning Cost ($/af)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D309E34D-C535-BB49-8E0A-BD559A9B3E83}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1522AE-621B-8644-A3E5-31597407106B}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -528,7 +538,7 @@
         <v>5000</v>
       </c>
       <c r="D2">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -542,7 +552,7 @@
         <v>750</v>
       </c>
       <c r="D3">
-        <v>801</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,7 +580,7 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <v>572</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,7 +594,7 @@
         <v>1200</v>
       </c>
       <c r="D6">
-        <v>1145</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,7 +608,7 @@
         <v>2400</v>
       </c>
       <c r="D7">
-        <v>1259</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,11 +622,11 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>1602</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -626,25 +636,25 @@
         <v>3200</v>
       </c>
       <c r="D9">
-        <v>1717</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>3000</v>
       </c>
       <c r="D10">
-        <v>2862</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -654,11 +664,11 @@
         <v>2000</v>
       </c>
       <c r="D11">
-        <v>3319</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -668,11 +678,11 @@
         <v>7500</v>
       </c>
       <c r="D12">
-        <v>3892</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
@@ -682,11 +692,11 @@
         <v>3500</v>
       </c>
       <c r="D13">
-        <v>4006</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -696,13 +706,7 @@
         <v>2000</v>
       </c>
       <c r="D14">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <f>SUM(C2:C14)</f>
-        <v>33300</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +715,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D309E34D-C535-BB49-8E0A-BD559A9B3E83}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+      <c r="D7">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>3200</v>
+      </c>
+      <c r="D9">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="D10">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>7500</v>
+      </c>
+      <c r="D12">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>3500</v>
+      </c>
+      <c r="D13">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>SUM(C2:C14)</f>
+        <v>33300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1DE456-F734-4D4F-A1FC-93C4AA8D79D8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -899,12 +1126,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E18C1-9388-434A-9E35-7C80A0F67C9D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,195 +1379,6 @@
       </c>
       <c r="E14">
         <v>1717</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1522AE-621B-8644-A3E5-31597407106B}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>750</v>
-      </c>
-      <c r="D3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1250</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>1200</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>2400</v>
-      </c>
-      <c r="D7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-      <c r="D8">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>3200</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>3000</v>
-      </c>
-      <c r="D10">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>2000</v>
-      </c>
-      <c r="D11">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>7500</v>
-      </c>
-      <c r="D12">
-        <v>3400</v>
       </c>
     </row>
   </sheetData>
